--- a/raw_data/chatbot_data_nlu.xlsx
+++ b/raw_data/chatbot_data_nlu.xlsx
@@ -478,7 +478,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vâng ạ</t>
+          <t>Vâng ạ.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,7 +498,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
+          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -713,7 +713,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
+          <t>Để giúp bạn tính toán số tiền được hoàn trả khi hạ tin, bot cần một số thông tin.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -745,7 +745,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Để bot có thể hỗ trợ về vấn đề này, bạn vui lòng cung cấp một số thông tin sau nha.</t>
+          <t>Bạn có thể để lại email hoặc số điện thoại, mình sẽ nhờ bộ phận chăm sóc khách hàng liên hệ trực tiếp để hỗ trợ bạn.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -9025,7 +9025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9044,6 +9044,13 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>action_calculate_down_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>action_forward_customer_service</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9702,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bạn đã mua gói tin trong bao nhiêu ngày?</t>
+          <t>Số ngày ban đầu bạn đã mua là bao nhiêu?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -9816,7 +9823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>unfeaturized</t>
+          <t>text</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -12728,7 +12735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12762,6 +12769,7 @@
           <t>Answer of Bot</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12794,6 +12802,7 @@
 </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -12805,6 +12814,7 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -12816,6 +12826,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -12827,6 +12838,7 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -12838,6 +12850,7 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -12849,6 +12862,7 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -12860,6 +12874,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -12871,6 +12886,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -12882,6 +12898,7 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -12893,6 +12910,7 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -12904,6 +12922,7 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -12915,6 +12934,7 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -12926,6 +12946,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -12937,6 +12958,7 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -12948,6 +12970,7 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -12959,6 +12982,7 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -12970,6 +12994,7 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -12981,6 +13006,7 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -12992,6 +13018,7 @@
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -13003,6 +13030,7 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -13014,6 +13042,7 @@
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -13025,6 +13054,7 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -13036,6 +13066,7 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -13047,6 +13078,7 @@
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -13058,6 +13090,7 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -13069,6 +13102,7 @@
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -13080,6 +13114,7 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -13091,6 +13126,7 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -13102,6 +13138,7 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -13113,6 +13150,7 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -13124,6 +13162,7 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -13135,6 +13174,7 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -13146,6 +13186,7 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -13157,6 +13198,7 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -13168,6 +13210,7 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -13179,6 +13222,7 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -13190,6 +13234,7 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -13201,6 +13246,7 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -13212,6 +13258,7 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -13223,6 +13270,7 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -13234,6 +13282,7 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -13245,6 +13294,7 @@
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -13256,6 +13306,7 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -13267,6 +13318,7 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -13278,6 +13330,7 @@
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -13289,6 +13342,7 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -13300,6 +13354,7 @@
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -13311,6 +13366,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -13322,6 +13378,7 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -13333,6 +13390,7 @@
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -13344,6 +13402,7 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -13355,6 +13414,7 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -13366,6 +13426,7 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13393,6 +13454,7 @@
           <t xml:space="preserve">Bạn vui lòng truy cập lịch sử giao dịch trong tài khoản Internet Banking của ngân hàng chuyển tiền, xem chi tiết giao dịch, chụp lại màn hình có đầy đủ các thông tin bao gồm: Số tài khoản, Tên tài khoản, Số tiền giao dịch, Nội dung chuyển tiền. Hình ảnh này có giá trị tương đương với Uỷ nhiệm chi/Biên lai chuyển tiền. </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -13404,6 +13466,7 @@
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -13415,6 +13478,7 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -13426,6 +13490,7 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -13437,6 +13502,7 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -13448,6 +13514,7 @@
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -13459,6 +13526,7 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -13470,6 +13538,7 @@
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -13481,6 +13550,7 @@
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -13492,6 +13562,7 @@
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -13503,6 +13574,7 @@
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13535,6 +13607,7 @@
 </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -13546,6 +13619,7 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -13557,6 +13631,7 @@
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -13568,6 +13643,7 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -13579,6 +13655,7 @@
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -13590,6 +13667,7 @@
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -13601,6 +13679,7 @@
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -13612,6 +13691,7 @@
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -13623,6 +13703,7 @@
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -13634,6 +13715,7 @@
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -13645,6 +13727,7 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -13656,6 +13739,7 @@
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -13667,6 +13751,7 @@
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -13678,6 +13763,7 @@
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -13689,6 +13775,7 @@
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -13700,6 +13787,7 @@
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -13711,6 +13799,7 @@
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13735,6 +13824,13 @@
         </is>
       </c>
       <c r="E83" t="inlineStr">
+        <is>
+          <t>Hiện tại, nhà nước đang đề cao việc thanh toán không dùng tiền mặt, và các hình thức thanh toán trên đều được bảo vệ bởi các tổ chức tài chính lớn, có sự bảo hộ của ngân hàng nhà nước, đo đó việc đảm bảo an toàn là gần như tuyệt đối. 
+- Meey Land đã được cấp phép và ký hợp đồng với các tổ chức trên mới được sử dụng làm phương tiện thanh toán cho khách hàng, các thông tin của khách hàng được đảm bảo tuyệt đối không lộ ra ngoài bằng bất cứ hình thức nào.
+- Tuy nhiên, Khách hàng nên lưu ý về cách bảo mật an toàn thông tin tài khoản theo khuyến cáo của ngân hàng, và chúng tôi không chịu trách nhiệm trong trường hợp thông tin của Khách hàng bị lộ do khách hàng cung cấp cho đối tượng nào khác ngoài Meey Land.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t xml:space="preserve"> Is meey: Website Meey Land được Sở Kế hoạch và Đầu tư Thành Phố Hà Nội cấp phép hoạt động vào năm 2019. Meey Land đề cao tính an toàn và bảo mật cho người dùng, ngoài mật khẩu thông thường, chúng tôi còn có tính năng bảo vệ 2 lớp cho tài khoản MeeyID của bạn, nên bạn hoàn toàn yên tâm về số tiền đã nạp vào Meey Land. 
 Is VN Pay: VNPAY là “CÔNG TY CỔ PHẦN GIẢI PHÁP THANH TOÁN VIỆT NAM”, đây là tổ chức được cho phép thành lập hợp pháp bới ngân hàng nhà nước Việt Nam, VNPAY đề cao tính bảo mật và an toàn cho khách hàng. Ngoài ra, để trở thành đối tác của VNPAY, chúng tôi đã qua quá trình kiểm tra chặt chẽ và đảm bảo các yêu cầu sau:
@@ -13756,6 +13852,7 @@
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -13767,6 +13864,7 @@
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -13778,6 +13876,7 @@
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -13789,6 +13888,7 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -13800,6 +13900,7 @@
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -13811,6 +13912,7 @@
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -13822,6 +13924,7 @@
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -13833,6 +13936,7 @@
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -13844,6 +13948,7 @@
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -13855,6 +13960,7 @@
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -13866,6 +13972,7 @@
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -13877,6 +13984,7 @@
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -13888,6 +13996,7 @@
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -13899,6 +14008,7 @@
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -13910,6 +14020,7 @@
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -13921,6 +14032,7 @@
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -13932,6 +14044,7 @@
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13959,6 +14072,7 @@
           <t>Meey Land liên kết với VNPAY để thiết lập cổng thanh toán cho KH tại Meey Land bằng cách quét mã QR trên mỗi hóa đơn thanh toán. Khách hàng cần phải có tài khoản ngân hàng và được mở chức năng thanh toán online mới có thể sử dụng thanh toán qua VNPAY (xem thêm hướng dẫn nạp tiền)</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -13970,6 +14084,7 @@
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -13981,6 +14096,7 @@
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -13992,6 +14108,7 @@
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -14003,6 +14120,7 @@
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -14014,6 +14132,7 @@
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -14025,6 +14144,7 @@
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -14036,6 +14156,7 @@
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -14047,6 +14168,7 @@
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -14058,6 +14180,7 @@
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -14069,6 +14192,7 @@
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -14080,6 +14204,7 @@
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -14091,6 +14216,7 @@
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -14102,6 +14228,7 @@
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14131,6 +14258,7 @@
 </t>
         </is>
       </c>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -14142,6 +14270,7 @@
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -14153,6 +14282,7 @@
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -14164,6 +14294,7 @@
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -14175,6 +14306,7 @@
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -14186,6 +14318,7 @@
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -14197,6 +14330,7 @@
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -14208,6 +14342,7 @@
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -14219,6 +14354,7 @@
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -14230,6 +14366,7 @@
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -14241,6 +14378,7 @@
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -14252,6 +14390,7 @@
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -14263,6 +14402,7 @@
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -14274,6 +14414,7 @@
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -14285,6 +14426,7 @@
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14312,6 +14454,7 @@
           <t>Hiện tại MeeyLand chưa cho phép rút tiền từ ví Meey về ngân hàng. Tuy nhiên trong thời gian tới, ví MeeyLand sẽ hoàn thiện hơn và cho phép người dùng được rút tiền về ngân hàng từ ví</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -14323,6 +14466,7 @@
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -14334,6 +14478,7 @@
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -14345,6 +14490,7 @@
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -14356,6 +14502,7 @@
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -14367,6 +14514,7 @@
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -14378,6 +14526,7 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -14389,6 +14538,7 @@
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -14400,6 +14550,7 @@
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -14411,6 +14562,7 @@
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -14422,6 +14574,7 @@
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -14433,6 +14586,7 @@
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14460,6 +14614,7 @@
           <t>Sau khi quý khách nạp tiền thành công, phía công ty Meeyland xác nhận khoản tiền trong tối đa 24h, sau đó tiền sẽ được đẩy về Ví của quý khách.</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -14471,6 +14626,7 @@
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -14482,6 +14638,7 @@
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -14493,6 +14650,7 @@
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -14504,6 +14662,7 @@
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -14515,6 +14674,7 @@
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -14526,6 +14686,7 @@
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -14537,6 +14698,7 @@
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -14548,6 +14710,7 @@
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -14559,6 +14722,7 @@
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20506,7 +20670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21096,6 +21260,28 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>mình muốn đổi gói tin</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>tớ muốn đổi gói tin</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24702,7 +24888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25218,31 +25404,6 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25255,7 +25416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G611"/>
+  <dimension ref="A1:G630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26967,7 +27128,11 @@
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>cho hỏi cái nè</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
@@ -26976,7 +27141,11 @@
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>cho mình hỏi cái</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -26985,7 +27154,11 @@
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>cho hỏi</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
@@ -28366,7 +28539,11 @@
     <row r="229">
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>thôi</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
@@ -28375,33 +28552,25 @@
     <row r="230">
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>thôi nhé</t>
+        </is>
+      </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Hỏi tiếp theo làm gì, giải thích rõ hơn, chi tiết hơn</t>
-        </is>
-      </c>
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
-          <t>mình rồi, làm thế nào nữa</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>request_more</t>
-        </is>
-      </c>
+          <t>không cung cấp đâu</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
@@ -28409,25 +28578,33 @@
     <row r="232">
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>làm thế nào nữa vậy?</t>
-        </is>
-      </c>
+      <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr"/>
-      <c r="B233" t="inlineStr"/>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Hỏi tiếp theo làm gì, giải thích rõ hơn, chi tiết hơn</t>
+        </is>
+      </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>rồi làm tn nữa?</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>mình rồi, làm thế nào nữa</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
@@ -28437,7 +28614,7 @@
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
-          <t>làm sao nữa</t>
+          <t>làm thế nào nữa vậy?</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
@@ -28450,7 +28627,7 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>sao nữa</t>
+          <t>rồi làm tn nữa?</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
@@ -28463,7 +28640,7 @@
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
-          <t>làm sao nữa nhỉ</t>
+          <t>làm sao nữa</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
@@ -28476,7 +28653,7 @@
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr">
         <is>
-          <t>rồi làm gì nữa</t>
+          <t>sao nữa</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
@@ -28489,7 +28666,7 @@
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
-          <t>bước tiếp theo là gì</t>
+          <t>làm sao nữa nhỉ</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
@@ -28502,7 +28679,7 @@
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
-          <t>bước tiếp theo như thế nào</t>
+          <t>rồi làm gì nữa</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
@@ -28515,7 +28692,7 @@
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
-          <t>xong rồi gì nữa</t>
+          <t>bước tiếp theo là gì</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
@@ -28528,7 +28705,7 @@
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
-          <t>giải thích thêm đi</t>
+          <t>bước tiếp theo như thế nào</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
@@ -28541,7 +28718,7 @@
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
-          <t>giải thích giùm sao lại cần thông tin đó</t>
+          <t>xong rồi gì nữa</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
@@ -28554,7 +28731,7 @@
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
-          <t>bạn có thể nói rõ hơn được không?</t>
+          <t>giải thích thêm đi</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
@@ -28567,7 +28744,7 @@
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr">
         <is>
-          <t>hãy giải thích cho tôi</t>
+          <t>giải thích giùm sao lại cần thông tin đó</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
@@ -28580,7 +28757,7 @@
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr">
         <is>
-          <t>hãy nói rõ cho tôi</t>
+          <t>bạn có thể nói rõ hơn được không?</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
@@ -28593,7 +28770,7 @@
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
-          <t>tìm giúp luôn đi</t>
+          <t>hãy giải thích cho tôi</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
@@ -28606,7 +28783,7 @@
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr">
         <is>
-          <t>tìm giúp tôi luôn đi đi</t>
+          <t>hãy nói rõ cho tôi</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
@@ -28619,7 +28796,7 @@
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr">
         <is>
-          <t>mình muốn thêm thông tin</t>
+          <t>tìm giúp luôn đi</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
@@ -28632,7 +28809,7 @@
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr">
         <is>
-          <t>tôi muốn biết sao bạn cần thông tin này</t>
+          <t>tìm giúp tôi luôn đi đi</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
@@ -28645,7 +28822,7 @@
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr">
         <is>
-          <t>bạn có thể cho mình xem luôn không</t>
+          <t>mình muốn thêm thông tin</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
@@ -28658,7 +28835,7 @@
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr">
         <is>
-          <t>hãy giải thích cho tôi</t>
+          <t>tôi muốn biết sao bạn cần thông tin này</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -28671,7 +28848,7 @@
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">hãy nói rõ hơn </t>
+          <t>bạn có thể cho mình xem luôn không</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
@@ -28684,7 +28861,7 @@
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr">
         <is>
-          <t>cụ thể hơn được không</t>
+          <t>hãy giải thích cho tôi</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
@@ -28697,7 +28874,7 @@
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="inlineStr">
         <is>
-          <t>thêm thông tin được không</t>
+          <t xml:space="preserve">hãy nói rõ hơn </t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
@@ -28710,7 +28887,7 @@
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
-          <t>chi tiết hơn đi</t>
+          <t>cụ thể hơn được không</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
@@ -28723,7 +28900,7 @@
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr">
         <is>
-          <t>chi tiết hơn được không</t>
+          <t>thêm thông tin được không</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
@@ -28736,7 +28913,7 @@
       <c r="B257" t="inlineStr"/>
       <c r="C257" t="inlineStr">
         <is>
-          <t>tại sao</t>
+          <t>chi tiết hơn đi</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
@@ -28749,7 +28926,7 @@
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
-          <t>sao nó lại cần</t>
+          <t>chi tiết hơn được không</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
@@ -28762,7 +28939,7 @@
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="inlineStr">
         <is>
-          <t>cung cấp thêm thông tin đi</t>
+          <t>tại sao</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
@@ -28775,7 +28952,7 @@
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="inlineStr">
         <is>
-          <t>bạn nói vậy nghĩa là gì</t>
+          <t>sao nó lại cần</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
@@ -28788,7 +28965,7 @@
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Bạn tư vấn giúp mình nhé</t>
+          <t>cung cấp thêm thông tin đi</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
@@ -28801,7 +28978,7 @@
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr">
         <is>
-          <t>bot tìm giúp luôn đi</t>
+          <t>bạn nói vậy nghĩa là gì</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
@@ -28814,7 +28991,7 @@
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr">
         <is>
-          <t>tìm hộ luôn đi</t>
+          <t>Bạn tư vấn giúp mình nhé</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
@@ -28827,7 +29004,7 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
-          <t>tìm luôn cho nhanh</t>
+          <t>bot tìm giúp luôn đi</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
@@ -28840,7 +29017,7 @@
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Bạn chỉ cho mình cách tìm nhé</t>
+          <t>tìm hộ luôn đi</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
@@ -28853,7 +29030,7 @@
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr">
         <is>
-          <t>gì nữa</t>
+          <t>tìm luôn cho nhanh</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
@@ -28866,7 +29043,7 @@
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr">
         <is>
-          <t>tìm giúp luôn đi</t>
+          <t>Bạn chỉ cho mình cách tìm nhé</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
@@ -28879,7 +29056,7 @@
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr">
         <is>
-          <t>nghĩa là gì</t>
+          <t>gì nữa</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
@@ -28892,7 +29069,7 @@
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr">
         <is>
-          <t>cái đó nghĩa như nào?</t>
+          <t>tìm giúp luôn đi</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
@@ -28905,7 +29082,7 @@
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Nói đi</t>
+          <t>nghĩa là gì</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
@@ -28918,7 +29095,7 @@
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
-          <t>ý bạn là sao?</t>
+          <t>cái đó nghĩa như nào?</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
@@ -28931,7 +29108,7 @@
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="inlineStr">
         <is>
-          <t>chi tiết</t>
+          <t>Nói đi</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
@@ -28944,7 +29121,7 @@
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr">
         <is>
-          <t>rồi sao</t>
+          <t>ý bạn là sao?</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
@@ -28957,7 +29134,7 @@
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="inlineStr">
         <is>
-          <t>chi tiết hơn được không</t>
+          <t>chi tiết</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
@@ -28970,7 +29147,7 @@
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="inlineStr">
         <is>
-          <t>chi tiết hơn đi</t>
+          <t>rồi sao</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
@@ -28983,7 +29160,7 @@
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
-          <t>chi tiết đi</t>
+          <t>chi tiết hơn được không</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
@@ -28994,33 +29171,25 @@
     <row r="277">
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr"/>
-      <c r="C277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>chi tiết hơn đi</t>
+        </is>
+      </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Thể hiện cảm xúc tiêu cực</t>
-        </is>
-      </c>
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Phức tạp thế</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>react_negative</t>
-        </is>
-      </c>
+          <t>chi tiết đi</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
@@ -29028,25 +29197,33 @@
     <row r="279">
       <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr"/>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>bot có vẻ ngố</t>
-        </is>
-      </c>
+      <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr"/>
-      <c r="B280" t="inlineStr"/>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Thể hiện cảm xúc tiêu cực</t>
+        </is>
+      </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>tào lao</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr"/>
+          <t>Phức tạp thế</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>react_negative</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr"/>
@@ -29056,7 +29233,7 @@
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="inlineStr">
         <is>
-          <t>tào lao quá</t>
+          <t>bot có vẻ ngố</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
@@ -29069,7 +29246,7 @@
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="inlineStr">
         <is>
-          <t>bot tào lao</t>
+          <t>tào lao</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
@@ -29082,7 +29259,7 @@
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr">
         <is>
-          <t>tào lao ghê</t>
+          <t>tào lao quá</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
@@ -29095,7 +29272,7 @@
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="inlineStr">
         <is>
-          <t>ngố quá</t>
+          <t>bot tào lao</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
@@ -29108,7 +29285,7 @@
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr">
         <is>
-          <t>hơi ngố đấy</t>
+          <t>tào lao ghê</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
@@ -29121,7 +29298,7 @@
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="inlineStr">
         <is>
-          <t>bot buồn cười quá</t>
+          <t>ngố quá</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
@@ -29134,7 +29311,7 @@
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr">
         <is>
-          <t>lằng nhằng phết nhỉ</t>
+          <t>hơi ngố đấy</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
@@ -29147,7 +29324,7 @@
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Bot khờ</t>
+          <t>bot buồn cười quá</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
@@ -29160,7 +29337,7 @@
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Sao phức tạp thế</t>
+          <t>lằng nhằng phết nhỉ</t>
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
@@ -29171,9 +29348,10 @@
     <row r="290">
       <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr"/>
-      <c r="C290">
-        <f>)) tao chịu</f>
-        <v/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Bot khờ</t>
+        </is>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
@@ -29185,7 +29363,7 @@
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Bạn chảnh vậy</t>
+          <t>Sao phức tạp thế</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
@@ -29196,10 +29374,9 @@
     <row r="292">
       <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr"/>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>khó hiểu quá</t>
-        </is>
+      <c r="C292">
+        <f>)) tao chịu</f>
+        <v/>
       </c>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
@@ -29211,7 +29388,7 @@
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr">
         <is>
-          <t>liên thiên</t>
+          <t>Bạn chảnh vậy</t>
         </is>
       </c>
       <c r="D293" t="inlineStr"/>
@@ -29224,7 +29401,7 @@
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr">
         <is>
-          <t>linh tinh</t>
+          <t>khó hiểu quá</t>
         </is>
       </c>
       <c r="D294" t="inlineStr"/>
@@ -29237,7 +29414,7 @@
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr">
         <is>
-          <t>trả lời không khớp gì cả</t>
+          <t>liên thiên</t>
         </is>
       </c>
       <c r="D295" t="inlineStr"/>
@@ -29250,7 +29427,7 @@
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr">
         <is>
-          <t>trả lời linh tinh</t>
+          <t>linh tinh</t>
         </is>
       </c>
       <c r="D296" t="inlineStr"/>
@@ -29263,7 +29440,7 @@
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr">
         <is>
-          <t>trả lời không khớp</t>
+          <t>trả lời không khớp gì cả</t>
         </is>
       </c>
       <c r="D297" t="inlineStr"/>
@@ -29276,7 +29453,7 @@
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr">
         <is>
-          <t>không khớp gì cả</t>
+          <t>trả lời linh tinh</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
@@ -29289,7 +29466,7 @@
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr">
         <is>
-          <t>hâm à</t>
+          <t>trả lời không khớp</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
@@ -29302,7 +29479,7 @@
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
-          <t>dở hơi</t>
+          <t>không khớp gì cả</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
@@ -29315,7 +29492,7 @@
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr">
         <is>
-          <t>nhố nhăng</t>
+          <t>hâm à</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
@@ -29328,7 +29505,7 @@
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr">
         <is>
-          <t>hâm lắm</t>
+          <t>dở hơi</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
@@ -29341,7 +29518,7 @@
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
-          <t>hâm</t>
+          <t>nhố nhăng</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
@@ -29354,7 +29531,7 @@
       <c r="B304" t="inlineStr"/>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Hâm à, tôi bảo bạn ngu</t>
+          <t>hâm lắm</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
@@ -29367,7 +29544,7 @@
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr">
         <is>
-          <t>lâu quá</t>
+          <t>hâm</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
@@ -29380,7 +29557,7 @@
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr">
         <is>
-          <t>vớ vẩn</t>
+          <t>Hâm à, tôi bảo bạn ngu</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -29393,7 +29570,7 @@
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr">
         <is>
-          <t>chán bot nhỉ</t>
+          <t>lâu quá</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -29406,7 +29583,7 @@
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Sao nhiều bước thế</t>
+          <t>vớ vẩn</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
@@ -29419,7 +29596,7 @@
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr">
         <is>
-          <t>lằng nhằng phết nhỉ</t>
+          <t>chán bot nhỉ</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
@@ -29432,7 +29609,7 @@
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr">
         <is>
-          <t>sao nhì nhằng thế</t>
+          <t>Sao nhiều bước thế</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
@@ -29445,7 +29622,7 @@
       <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
-          <t>sao mà phức tạp thế nhỉ</t>
+          <t>lằng nhằng phết nhỉ</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
@@ -29458,7 +29635,7 @@
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr">
         <is>
-          <t>hướng dẫn từ từ thôi xem nào</t>
+          <t>sao nhì nhằng thế</t>
         </is>
       </c>
       <c r="D312" t="inlineStr"/>
@@ -29471,7 +29648,7 @@
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr">
         <is>
-          <t>hướng dẫn từ từ thôi</t>
+          <t>sao mà phức tạp thế nhỉ</t>
         </is>
       </c>
       <c r="D313" t="inlineStr"/>
@@ -29484,7 +29661,7 @@
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr">
         <is>
-          <t>trả lời liên quan quá</t>
+          <t>hướng dẫn từ từ thôi xem nào</t>
         </is>
       </c>
       <c r="D314" t="inlineStr"/>
@@ -29497,7 +29674,7 @@
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr">
         <is>
-          <t>trả lời sai rồi kìa</t>
+          <t>hướng dẫn từ từ thôi</t>
         </is>
       </c>
       <c r="D315" t="inlineStr"/>
@@ -29510,7 +29687,7 @@
       <c r="B316" t="inlineStr"/>
       <c r="C316" t="inlineStr">
         <is>
-          <t>trả lời tệ quá đấy</t>
+          <t>trả lời liên quan quá</t>
         </is>
       </c>
       <c r="D316" t="inlineStr"/>
@@ -29523,7 +29700,7 @@
       <c r="B317" t="inlineStr"/>
       <c r="C317" t="inlineStr">
         <is>
-          <t>không trả lời đúng gì</t>
+          <t>trả lời sai rồi kìa</t>
         </is>
       </c>
       <c r="D317" t="inlineStr"/>
@@ -29536,7 +29713,7 @@
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr">
         <is>
-          <t>buồn quá</t>
+          <t>trả lời tệ quá đấy</t>
         </is>
       </c>
       <c r="D318" t="inlineStr"/>
@@ -29549,7 +29726,7 @@
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr">
         <is>
-          <t>tệ quá</t>
+          <t>không trả lời đúng gì</t>
         </is>
       </c>
       <c r="D319" t="inlineStr"/>
@@ -29562,7 +29739,7 @@
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr">
         <is>
-          <t>quá dở</t>
+          <t>buồn quá</t>
         </is>
       </c>
       <c r="D320" t="inlineStr"/>
@@ -29575,7 +29752,7 @@
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr">
         <is>
-          <t>quá tệ</t>
+          <t>tệ quá</t>
         </is>
       </c>
       <c r="D321" t="inlineStr"/>
@@ -29588,7 +29765,7 @@
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr">
         <is>
-          <t>chatbot lởm thế</t>
+          <t>quá dở</t>
         </is>
       </c>
       <c r="D322" t="inlineStr"/>
@@ -29601,7 +29778,7 @@
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="inlineStr">
         <is>
-          <t>bot lởm quá</t>
+          <t>quá tệ</t>
         </is>
       </c>
       <c r="D323" t="inlineStr"/>
@@ -29614,7 +29791,7 @@
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr">
         <is>
-          <t>quá thât vọng</t>
+          <t>chatbot lởm thế</t>
         </is>
       </c>
       <c r="D324" t="inlineStr"/>
@@ -29627,7 +29804,7 @@
       <c r="B325" t="inlineStr"/>
       <c r="C325" t="inlineStr">
         <is>
-          <t>thất vọng</t>
+          <t>bot lởm quá</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
@@ -29640,7 +29817,7 @@
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr">
         <is>
-          <t>quá thất vọng với bot</t>
+          <t>quá thât vọng</t>
         </is>
       </c>
       <c r="D326" t="inlineStr"/>
@@ -29653,7 +29830,7 @@
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr">
         <is>
-          <t>thất vọng quá</t>
+          <t>thất vọng</t>
         </is>
       </c>
       <c r="D327" t="inlineStr"/>
@@ -29666,7 +29843,7 @@
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr">
         <is>
-          <t>bot dở quá đi</t>
+          <t>quá thất vọng với bot</t>
         </is>
       </c>
       <c r="D328" t="inlineStr"/>
@@ -29679,7 +29856,7 @@
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="inlineStr">
         <is>
-          <t>chatbot chán quá</t>
+          <t>thất vọng quá</t>
         </is>
       </c>
       <c r="D329" t="inlineStr"/>
@@ -29692,7 +29869,7 @@
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr">
         <is>
-          <t>bot quá dở</t>
+          <t>bot dở quá đi</t>
         </is>
       </c>
       <c r="D330" t="inlineStr"/>
@@ -29705,7 +29882,7 @@
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr">
         <is>
-          <t>ngố tàu</t>
+          <t>chatbot chán quá</t>
         </is>
       </c>
       <c r="D331" t="inlineStr"/>
@@ -29718,7 +29895,7 @@
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr">
         <is>
-          <t>ko thông minh lắm</t>
+          <t>bot quá dở</t>
         </is>
       </c>
       <c r="D332" t="inlineStr"/>
@@ -29731,7 +29908,7 @@
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr">
         <is>
-          <t>không thông minh tẹo nào</t>
+          <t>ngố tàu</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
@@ -29744,7 +29921,7 @@
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr">
         <is>
-          <t>ko thông minh như mình nghĩ</t>
+          <t>ko thông minh lắm</t>
         </is>
       </c>
       <c r="D334" t="inlineStr"/>
@@ -29757,7 +29934,7 @@
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr">
         <is>
-          <t>sao m ngu thế</t>
+          <t>không thông minh tẹo nào</t>
         </is>
       </c>
       <c r="D335" t="inlineStr"/>
@@ -29770,7 +29947,7 @@
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr">
         <is>
-          <t>bot ngu thế</t>
+          <t>ko thông minh như mình nghĩ</t>
         </is>
       </c>
       <c r="D336" t="inlineStr"/>
@@ -29783,7 +29960,7 @@
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr">
         <is>
-          <t>ngu lắm</t>
+          <t>sao m ngu thế</t>
         </is>
       </c>
       <c r="D337" t="inlineStr"/>
@@ -29796,7 +29973,7 @@
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr">
         <is>
-          <t>hơi ngu</t>
+          <t>bot ngu thế</t>
         </is>
       </c>
       <c r="D338" t="inlineStr"/>
@@ -29809,7 +29986,7 @@
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr">
         <is>
-          <t>bot cùi</t>
+          <t>ngu lắm</t>
         </is>
       </c>
       <c r="D339" t="inlineStr"/>
@@ -29822,7 +29999,7 @@
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr">
         <is>
-          <t>bot chán vãi</t>
+          <t>hơi ngu</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
@@ -29835,7 +30012,7 @@
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr">
         <is>
-          <t>chán nhỉ</t>
+          <t>bot cùi</t>
         </is>
       </c>
       <c r="D341" t="inlineStr"/>
@@ -29848,7 +30025,7 @@
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr">
         <is>
-          <t>bot ngố quá</t>
+          <t>bot chán vãi</t>
         </is>
       </c>
       <c r="D342" t="inlineStr"/>
@@ -29861,7 +30038,7 @@
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr">
         <is>
-          <t>chán lắm</t>
+          <t>chán nhỉ</t>
         </is>
       </c>
       <c r="D343" t="inlineStr"/>
@@ -29874,7 +30051,7 @@
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr">
         <is>
-          <t>bot cực tệ</t>
+          <t>bot ngố quá</t>
         </is>
       </c>
       <c r="D344" t="inlineStr"/>
@@ -29887,7 +30064,7 @@
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr">
         <is>
-          <t>sai rồi</t>
+          <t>chán lắm</t>
         </is>
       </c>
       <c r="D345" t="inlineStr"/>
@@ -29900,7 +30077,7 @@
       <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr">
         <is>
-          <t>không đúng gì cả</t>
+          <t>bot cực tệ</t>
         </is>
       </c>
       <c r="D346" t="inlineStr"/>
@@ -29913,7 +30090,7 @@
       <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr">
         <is>
-          <t>cứ sao ấy</t>
+          <t>sai rồi</t>
         </is>
       </c>
       <c r="D347" t="inlineStr"/>
@@ -29926,7 +30103,7 @@
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr">
         <is>
-          <t>chả giúp được</t>
+          <t>không đúng gì cả</t>
         </is>
       </c>
       <c r="D348" t="inlineStr"/>
@@ -29939,7 +30116,7 @@
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr">
         <is>
-          <t>vớ vẩn, không đúng gì</t>
+          <t>cứ sao ấy</t>
         </is>
       </c>
       <c r="D349" t="inlineStr"/>
@@ -29952,7 +30129,7 @@
       <c r="B350" t="inlineStr"/>
       <c r="C350" t="inlineStr">
         <is>
-          <t>chán vãi</t>
+          <t>chả giúp được</t>
         </is>
       </c>
       <c r="D350" t="inlineStr"/>
@@ -29965,7 +30142,7 @@
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr">
         <is>
-          <t>rất rất cùi</t>
+          <t>vớ vẩn, không đúng gì</t>
         </is>
       </c>
       <c r="D351" t="inlineStr"/>
@@ -29978,7 +30155,7 @@
       <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr">
         <is>
-          <t>còn tệ lắm</t>
+          <t>chán vãi</t>
         </is>
       </c>
       <c r="D352" t="inlineStr"/>
@@ -29991,7 +30168,7 @@
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr">
         <is>
-          <t>không trả lời đúng được à</t>
+          <t>rất rất cùi</t>
         </is>
       </c>
       <c r="D353" t="inlineStr"/>
@@ -30004,7 +30181,7 @@
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr">
         <is>
-          <t>lâu vậy</t>
+          <t>còn tệ lắm</t>
         </is>
       </c>
       <c r="D354" t="inlineStr"/>
@@ -30017,7 +30194,7 @@
       <c r="B355" t="inlineStr"/>
       <c r="C355" t="inlineStr">
         <is>
-          <t>ngu như bò</t>
+          <t>không trả lời đúng được à</t>
         </is>
       </c>
       <c r="D355" t="inlineStr"/>
@@ -30028,70 +30205,62 @@
     <row r="356">
       <c r="A356" t="inlineStr"/>
       <c r="B356" t="inlineStr"/>
-      <c r="C356" t="inlineStr"/>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>lâu vậy</t>
+        </is>
+      </c>
       <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Thể hiện cảm xúc tích cực</t>
-        </is>
-      </c>
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
-          <t>tốt lắm</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>react_positive</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>Mình cảm ơn ạ 😄</t>
-        </is>
-      </c>
+          <t>ngu như bò</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr"/>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>bot giỏi quá</t>
-        </is>
-      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr"/>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>😊</t>
-        </is>
-      </c>
+      <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr"/>
-      <c r="B359" t="inlineStr"/>
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Thể hiện cảm xúc tích cực</t>
+        </is>
+      </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>bot thông minh quá</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
+          <t>tốt lắm</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>react_positive</t>
+        </is>
+      </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>👏</t>
+          <t>Mình cảm ơn ạ 😄</t>
         </is>
       </c>
       <c r="F359" t="inlineStr"/>
@@ -30102,13 +30271,13 @@
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr">
         <is>
-          <t>haahaa</t>
+          <t>bot giỏi quá</t>
         </is>
       </c>
       <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Mình cảm ơn ạ 😍</t>
+          <t>😊</t>
         </is>
       </c>
       <c r="F360" t="inlineStr"/>
@@ -30119,11 +30288,15 @@
       <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr">
         <is>
-          <t>haha</t>
+          <t>bot thông minh quá</t>
         </is>
       </c>
       <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>👏</t>
+        </is>
+      </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
     </row>
@@ -30132,11 +30305,15 @@
       <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr">
         <is>
-          <t>yêu lắm</t>
+          <t>haahaa</t>
         </is>
       </c>
       <c r="D362" t="inlineStr"/>
-      <c r="E362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Mình cảm ơn ạ 😍</t>
+        </is>
+      </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
     </row>
@@ -30145,7 +30322,7 @@
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr">
         <is>
-          <t>tuyệt vời</t>
+          <t>haha</t>
         </is>
       </c>
       <c r="D363" t="inlineStr"/>
@@ -30158,7 +30335,7 @@
       <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr">
         <is>
-          <t>quá tốt</t>
+          <t>yêu lắm</t>
         </is>
       </c>
       <c r="D364" t="inlineStr"/>
@@ -30171,7 +30348,7 @@
       <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr">
         <is>
-          <t>quá ấn tượng</t>
+          <t>tuyệt vời</t>
         </is>
       </c>
       <c r="D365" t="inlineStr"/>
@@ -30184,7 +30361,7 @@
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr">
         <is>
-          <t>vui đấy</t>
+          <t>quá tốt</t>
         </is>
       </c>
       <c r="D366" t="inlineStr"/>
@@ -30197,7 +30374,7 @@
       <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Hay quá</t>
+          <t>quá ấn tượng</t>
         </is>
       </c>
       <c r="D367" t="inlineStr"/>
@@ -30210,7 +30387,7 @@
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr">
         <is>
-          <t>hay quá</t>
+          <t>vui đấy</t>
         </is>
       </c>
       <c r="D368" t="inlineStr"/>
@@ -30223,7 +30400,7 @@
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr">
         <is>
-          <t>hay</t>
+          <t>Hay quá</t>
         </is>
       </c>
       <c r="D369" t="inlineStr"/>
@@ -30236,7 +30413,7 @@
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr">
         <is>
-          <t>ngoan quá</t>
+          <t>hay quá</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
@@ -30249,7 +30426,7 @@
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="inlineStr">
         <is>
-          <t>giỏi nhở</t>
+          <t>hay</t>
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
@@ -30262,7 +30439,7 @@
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr">
         <is>
-          <t>giỏi quá</t>
+          <t>ngoan quá</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
@@ -30275,7 +30452,7 @@
       <c r="B373" t="inlineStr"/>
       <c r="C373" t="inlineStr">
         <is>
-          <t>giỏi thế</t>
+          <t>giỏi nhở</t>
         </is>
       </c>
       <c r="D373" t="inlineStr"/>
@@ -30288,7 +30465,7 @@
       <c r="B374" t="inlineStr"/>
       <c r="C374" t="inlineStr">
         <is>
-          <t>giỏi lắm</t>
+          <t>giỏi quá</t>
         </is>
       </c>
       <c r="D374" t="inlineStr"/>
@@ -30301,7 +30478,7 @@
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr">
         <is>
-          <t>đáng yêu quá</t>
+          <t>giỏi thế</t>
         </is>
       </c>
       <c r="D375" t="inlineStr"/>
@@ -30314,7 +30491,7 @@
       <c r="B376" t="inlineStr"/>
       <c r="C376" t="inlineStr">
         <is>
-          <t>đáng eo</t>
+          <t>giỏi lắm</t>
         </is>
       </c>
       <c r="D376" t="inlineStr"/>
@@ -30327,7 +30504,7 @@
       <c r="B377" t="inlineStr"/>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Đáng yêu thế</t>
+          <t>đáng yêu quá</t>
         </is>
       </c>
       <c r="D377" t="inlineStr"/>
@@ -30340,7 +30517,7 @@
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr">
         <is>
-          <t>thông minh nhỉ</t>
+          <t>đáng eo</t>
         </is>
       </c>
       <c r="D378" t="inlineStr"/>
@@ -30353,7 +30530,7 @@
       <c r="B379" t="inlineStr"/>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Thấy bảo ấy thông minh lắm</t>
+          <t>Đáng yêu thế</t>
         </is>
       </c>
       <c r="D379" t="inlineStr"/>
@@ -30366,7 +30543,7 @@
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr">
         <is>
-          <t>thông minh vậy</t>
+          <t>thông minh nhỉ</t>
         </is>
       </c>
       <c r="D380" t="inlineStr"/>
@@ -30379,7 +30556,7 @@
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr">
         <is>
-          <t>tốt quá</t>
+          <t>Thấy bảo ấy thông minh lắm</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -30392,7 +30569,7 @@
       <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr">
         <is>
-          <t>khá thông minh</t>
+          <t>thông minh vậy</t>
         </is>
       </c>
       <c r="D382" t="inlineStr"/>
@@ -30405,7 +30582,7 @@
       <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr">
         <is>
-          <t>thông minh</t>
+          <t>tốt quá</t>
         </is>
       </c>
       <c r="D383" t="inlineStr"/>
@@ -30418,7 +30595,7 @@
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr">
         <is>
-          <t>thông mình lắm</t>
+          <t>khá thông minh</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
@@ -30431,7 +30608,7 @@
       <c r="B385" t="inlineStr"/>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Nói chung là bạn thông minh</t>
+          <t>thông minh</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -30444,7 +30621,7 @@
       <c r="B386" t="inlineStr"/>
       <c r="C386" t="inlineStr">
         <is>
-          <t>yêu</t>
+          <t>thông mình lắm</t>
         </is>
       </c>
       <c r="D386" t="inlineStr"/>
@@ -30457,7 +30634,7 @@
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="inlineStr">
         <is>
-          <t>iu quá</t>
+          <t>Nói chung là bạn thông minh</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
@@ -30470,7 +30647,7 @@
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="inlineStr">
         <is>
-          <t>đáng iu</t>
+          <t>yêu</t>
         </is>
       </c>
       <c r="D388" t="inlineStr"/>
@@ -30483,7 +30660,7 @@
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bạn thật tuyệt, tôi yêu bạn </t>
+          <t>iu quá</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
@@ -30496,7 +30673,7 @@
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr">
         <is>
-          <t>yêu nhắm</t>
+          <t>đáng iu</t>
         </is>
       </c>
       <c r="D390" t="inlineStr"/>
@@ -30509,7 +30686,7 @@
       <c r="B391" t="inlineStr"/>
       <c r="C391" t="inlineStr">
         <is>
-          <t>yêu quá</t>
+          <t xml:space="preserve">Bạn thật tuyệt, tôi yêu bạn </t>
         </is>
       </c>
       <c r="D391" t="inlineStr"/>
@@ -30522,7 +30699,7 @@
       <c r="B392" t="inlineStr"/>
       <c r="C392" t="inlineStr">
         <is>
-          <t>đáng yêu</t>
+          <t>yêu nhắm</t>
         </is>
       </c>
       <c r="D392" t="inlineStr"/>
@@ -30535,7 +30712,7 @@
       <c r="B393" t="inlineStr"/>
       <c r="C393" t="inlineStr">
         <is>
-          <t>ngoan đấy</t>
+          <t>yêu quá</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
@@ -30548,7 +30725,7 @@
       <c r="B394" t="inlineStr"/>
       <c r="C394" t="inlineStr">
         <is>
-          <t>cũng được nhỉ</t>
+          <t>đáng yêu</t>
         </is>
       </c>
       <c r="D394" t="inlineStr"/>
@@ -30561,7 +30738,7 @@
       <c r="B395" t="inlineStr"/>
       <c r="C395" t="inlineStr">
         <is>
-          <t>vui tính nhỉ</t>
+          <t>ngoan đấy</t>
         </is>
       </c>
       <c r="D395" t="inlineStr"/>
@@ -30574,7 +30751,7 @@
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="inlineStr">
         <is>
-          <t>hay lắm</t>
+          <t>cũng được nhỉ</t>
         </is>
       </c>
       <c r="D396" t="inlineStr"/>
@@ -30587,7 +30764,7 @@
       <c r="B397" t="inlineStr"/>
       <c r="C397" t="inlineStr">
         <is>
-          <t>hay nhỉ</t>
+          <t>vui tính nhỉ</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
@@ -30600,7 +30777,7 @@
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr">
         <is>
-          <t>khá lắm</t>
+          <t>hay lắm</t>
         </is>
       </c>
       <c r="D398" t="inlineStr"/>
@@ -30613,7 +30790,7 @@
       <c r="B399" t="inlineStr"/>
       <c r="C399" t="inlineStr">
         <is>
-          <t>chất lượng quá</t>
+          <t>hay nhỉ</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -30626,7 +30803,7 @@
       <c r="B400" t="inlineStr"/>
       <c r="C400" t="inlineStr">
         <is>
-          <t>cực chất</t>
+          <t>khá lắm</t>
         </is>
       </c>
       <c r="D400" t="inlineStr"/>
@@ -30639,7 +30816,7 @@
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Thấy giới thiệu bạn Thông minh lắm</t>
+          <t>chất lượng quá</t>
         </is>
       </c>
       <c r="D401" t="inlineStr"/>
@@ -30652,7 +30829,7 @@
       <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Tôi yêu bạn</t>
+          <t>cực chất</t>
         </is>
       </c>
       <c r="D402" t="inlineStr"/>
@@ -30665,7 +30842,7 @@
       <c r="B403" t="inlineStr"/>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Bạn thật tuyệt, tôi yêu bạn ❤</t>
+          <t>Thấy giới thiệu bạn Thông minh lắm</t>
         </is>
       </c>
       <c r="D403" t="inlineStr"/>
@@ -30678,7 +30855,7 @@
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Yêu em</t>
+          <t>Tôi yêu bạn</t>
         </is>
       </c>
       <c r="D404" t="inlineStr"/>
@@ -30689,7 +30866,11 @@
     <row r="405">
       <c r="A405" t="inlineStr"/>
       <c r="B405" t="inlineStr"/>
-      <c r="C405" t="inlineStr"/>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Bạn thật tuyệt, tôi yêu bạn ❤</t>
+        </is>
+      </c>
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
@@ -30698,7 +30879,11 @@
     <row r="406">
       <c r="A406" t="inlineStr"/>
       <c r="B406" t="inlineStr"/>
-      <c r="C406" t="inlineStr"/>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Yêu em</t>
+        </is>
+      </c>
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
@@ -30714,11 +30899,7 @@
       <c r="G407" t="inlineStr"/>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A408" t="inlineStr"/>
       <c r="B408" t="inlineStr"/>
       <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr"/>
@@ -30727,57 +30908,53 @@
       <c r="G408" t="inlineStr"/>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Cho rằng bot không thể giúp mình</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>mình nghĩ bạn không giúp mình được</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>canthelp</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>Xin lỗi vì không thể giúp bạn.</t>
-        </is>
-      </c>
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr"/>
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr"/>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>mình nghĩ bạn không trả lời được</t>
-        </is>
-      </c>
+      <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr"/>
-      <c r="B411" t="inlineStr"/>
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Cho rằng bot không thể giúp mình</t>
+        </is>
+      </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>chỉ có thế thôi à</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
+          <t>mình nghĩ bạn không giúp mình được</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>canthelp</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Xin lỗi vì không thể giúp bạn.</t>
+        </is>
+      </c>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
     </row>
@@ -30786,7 +30963,7 @@
       <c r="B412" t="inlineStr"/>
       <c r="C412" t="inlineStr">
         <is>
-          <t>chỉ có vậy thôi à</t>
+          <t>mình nghĩ bạn không trả lời được</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
@@ -30799,7 +30976,7 @@
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr">
         <is>
-          <t>tất cả chỉ thế thôi sao</t>
+          <t>chỉ có thế thôi à</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
@@ -30812,7 +30989,7 @@
       <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr">
         <is>
-          <t>đoán là không giúp được đâu</t>
+          <t>chỉ có vậy thôi à</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
@@ -30825,7 +31002,7 @@
       <c r="B415" t="inlineStr"/>
       <c r="C415" t="inlineStr">
         <is>
-          <t>đoán là không biết đâu</t>
+          <t>tất cả chỉ thế thôi sao</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
@@ -30838,7 +31015,7 @@
       <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr">
         <is>
-          <t>còn gì nữa không?</t>
+          <t>đoán là không giúp được đâu</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
@@ -30851,7 +31028,7 @@
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr">
         <is>
-          <t>ok mình đoán bạn không giúp được</t>
+          <t>đoán là không biết đâu</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
@@ -30864,7 +31041,7 @@
       <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Vậy à. Thế thôi</t>
+          <t>còn gì nữa không?</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
@@ -30877,7 +31054,7 @@
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr">
         <is>
-          <t>thôi</t>
+          <t>ok mình đoán bạn không giúp được</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
@@ -30890,7 +31067,7 @@
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Rasa cứng nhắc thế :3</t>
+          <t>Vậy à. Thế thôi</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
@@ -30903,7 +31080,7 @@
       <c r="B421" t="inlineStr"/>
       <c r="C421" t="inlineStr">
         <is>
-          <t>thôi, dừng trao đổi</t>
+          <t>thôi</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
@@ -30916,7 +31093,7 @@
       <c r="B422" t="inlineStr"/>
       <c r="C422" t="inlineStr">
         <is>
-          <t>chẳng thông minh tẹo nào</t>
+          <t>Rasa cứng nhắc thế :3</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
@@ -30929,7 +31106,7 @@
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="inlineStr">
         <is>
-          <t>thôi dừng nói chuyện</t>
+          <t>thôi, dừng trao đổi</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
@@ -30942,7 +31119,7 @@
       <c r="B424" t="inlineStr"/>
       <c r="C424" t="inlineStr">
         <is>
-          <t>thôi, dừng tại đây</t>
+          <t>chẳng thông minh tẹo nào</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
@@ -30951,15 +31128,11 @@
       <c r="G424" t="inlineStr"/>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A425" t="inlineStr"/>
       <c r="B425" t="inlineStr"/>
       <c r="C425" t="inlineStr">
         <is>
-          <t>câu trả lời không đúng</t>
+          <t>thôi dừng nói chuyện</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
@@ -30968,40 +31141,28 @@
       <c r="G425" t="inlineStr"/>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>không muốn hd nào đó</t>
-        </is>
-      </c>
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" t="inlineStr"/>
       <c r="C426" t="inlineStr">
         <is>
-          <t>tôi không muốn hướng dẫn này</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>not_need_this_help</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>Vậy bot có thể giúp gì cho bạn?</t>
-        </is>
-      </c>
+          <t>thôi, dừng tại đây</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr"/>
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr"/>
       <c r="C427" t="inlineStr">
         <is>
-          <t>không phải hướng dẫn này</t>
+          <t>câu trả lời không đúng</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
@@ -31010,15 +31171,31 @@
       <c r="G427" t="inlineStr"/>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr"/>
-      <c r="B428" t="inlineStr"/>
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>không muốn hd nào đó</t>
+        </is>
+      </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>tôi không muốn hướng dẫn đăng tin</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
+          <t>tôi không muốn hướng dẫn này</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>not_need_this_help</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Vậy bot có thể giúp gì cho bạn?</t>
+        </is>
+      </c>
       <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr"/>
     </row>
@@ -31027,7 +31204,7 @@
       <c r="B429" t="inlineStr"/>
       <c r="C429" t="inlineStr">
         <is>
-          <t>tôi không muốn hỏi cái này</t>
+          <t>không phải hướng dẫn này</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
@@ -31040,7 +31217,7 @@
       <c r="B430" t="inlineStr"/>
       <c r="C430" t="inlineStr">
         <is>
-          <t>tôi không cần hỏi việc này</t>
+          <t>tôi không muốn hướng dẫn đăng tin</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
@@ -31053,7 +31230,7 @@
       <c r="B431" t="inlineStr"/>
       <c r="C431" t="inlineStr">
         <is>
-          <t>không phải việc này</t>
+          <t>tôi không muốn hỏi cái này</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
@@ -31066,7 +31243,7 @@
       <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr">
         <is>
-          <t>không phải câu hỏi này</t>
+          <t>tôi không cần hỏi việc này</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
@@ -31079,7 +31256,7 @@
       <c r="B433" t="inlineStr"/>
       <c r="C433" t="inlineStr">
         <is>
-          <t>không đúng rồi</t>
+          <t>không phải việc này</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
@@ -31092,7 +31269,7 @@
       <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr">
         <is>
-          <t>câu trả lời khác đi</t>
+          <t>không phải câu hỏi này</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
@@ -31105,7 +31282,7 @@
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr">
         <is>
-          <t>câu trả lời này không chuẩn đâu</t>
+          <t>không đúng rồi</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
@@ -31118,7 +31295,7 @@
       <c r="B436" t="inlineStr"/>
       <c r="C436" t="inlineStr">
         <is>
-          <t>câu trả lời này không phải rồi</t>
+          <t>câu trả lời khác đi</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
@@ -31131,7 +31308,7 @@
       <c r="B437" t="inlineStr"/>
       <c r="C437" t="inlineStr">
         <is>
-          <t>trả lời thế không đúng rồi</t>
+          <t>câu trả lời này không chuẩn đâu</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
@@ -31144,7 +31321,7 @@
       <c r="B438" t="inlineStr"/>
       <c r="C438" t="inlineStr">
         <is>
-          <t>tôi có hỏi thế đâu</t>
+          <t>câu trả lời này không phải rồi</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
@@ -31157,7 +31334,7 @@
       <c r="B439" t="inlineStr"/>
       <c r="C439" t="inlineStr">
         <is>
-          <t>tôi hỏi khác mà</t>
+          <t>trả lời thế không đúng rồi</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
@@ -31170,7 +31347,7 @@
       <c r="B440" t="inlineStr"/>
       <c r="C440" t="inlineStr">
         <is>
-          <t>tôi muốn hỏi khác cơ</t>
+          <t>tôi có hỏi thế đâu</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
@@ -31183,7 +31360,7 @@
       <c r="B441" t="inlineStr"/>
       <c r="C441" t="inlineStr">
         <is>
-          <t>câu hỏi của tôi khác mà</t>
+          <t>tôi hỏi khác mà</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
@@ -31194,7 +31371,11 @@
     <row r="442">
       <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr"/>
-      <c r="C442" t="inlineStr"/>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>tôi muốn hỏi khác cơ</t>
+        </is>
+      </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
@@ -31203,7 +31384,11 @@
     <row r="443">
       <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr"/>
-      <c r="C443" t="inlineStr"/>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>câu hỏi của tôi khác mà</t>
+        </is>
+      </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
@@ -31228,26 +31413,10 @@
       <c r="G445" t="inlineStr"/>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>Người dùng nhập thông tin</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>trong [90 ngày](duration) ý?</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>enter_data</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr"/>
@@ -31255,25 +31424,33 @@
     <row r="447">
       <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr"/>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>mua [1 tuần](duration) cơ</t>
-        </is>
-      </c>
+      <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr"/>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr"/>
-      <c r="B448" t="inlineStr"/>
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Người dùng nhập thông tin</t>
+        </is>
+      </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>[1 ngày](duration) thôi</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
+          <t>trong [90 ngày](duration) ý?</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>enter_data</t>
+        </is>
+      </c>
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
@@ -31283,7 +31460,7 @@
       <c r="B449" t="inlineStr"/>
       <c r="C449" t="inlineStr">
         <is>
-          <t>gói [vip 3](post_package)</t>
+          <t>mua [1 tuần](duration) cơ</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
@@ -31296,7 +31473,7 @@
       <c r="B450" t="inlineStr"/>
       <c r="C450" t="inlineStr">
         <is>
-          <t>[vip2](post_package) nhé</t>
+          <t>[1 ngày](duration) thôi</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
@@ -31309,7 +31486,7 @@
       <c r="B451" t="inlineStr"/>
       <c r="C451" t="inlineStr">
         <is>
-          <t>cho hỏi gói [v1](post_package)</t>
+          <t>gói [vip 3](post_package)</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
@@ -31322,7 +31499,7 @@
       <c r="B452" t="inlineStr"/>
       <c r="C452" t="inlineStr">
         <is>
-          <t>gói [vip1](post_package) ấy</t>
+          <t>[vip2](post_package) nhé</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
@@ -31335,7 +31512,7 @@
       <c r="B453" t="inlineStr"/>
       <c r="C453" t="inlineStr">
         <is>
-          <t>gói [vip2](post_package) ad ơi</t>
+          <t>cho hỏi gói [v1](post_package)</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
@@ -31348,7 +31525,7 @@
       <c r="B454" t="inlineStr"/>
       <c r="C454" t="inlineStr">
         <is>
-          <t>[vip 2](post_package) nhé</t>
+          <t>gói [vip1](post_package) ấy</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
@@ -31361,7 +31538,7 @@
       <c r="B455" t="inlineStr"/>
       <c r="C455" t="inlineStr">
         <is>
-          <t>[vip 3](post_package) nhé</t>
+          <t>gói [vip2](post_package) ad ơi</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
@@ -31374,7 +31551,7 @@
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="inlineStr">
         <is>
-          <t>[vip1](post_package) nhé</t>
+          <t>[vip 2](post_package) nhé</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
@@ -31387,7 +31564,7 @@
       <c r="B457" t="inlineStr"/>
       <c r="C457" t="inlineStr">
         <is>
-          <t>cho hỏi về gói [vip2](post_package)</t>
+          <t>[vip 3](post_package) nhé</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
@@ -31400,7 +31577,7 @@
       <c r="B458" t="inlineStr"/>
       <c r="C458" t="inlineStr">
         <is>
-          <t>ngu thế, t hỏi gói [vip 2](post_package)</t>
+          <t>[vip1](post_package) nhé</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
@@ -31413,7 +31590,7 @@
       <c r="B459" t="inlineStr"/>
       <c r="C459" t="inlineStr">
         <is>
-          <t>gói [vip2](post_package) nhé</t>
+          <t>cho hỏi về gói [vip2](post_package)</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
@@ -31426,7 +31603,7 @@
       <c r="B460" t="inlineStr"/>
       <c r="C460" t="inlineStr">
         <is>
-          <t>[vip 2](post_package) ấy</t>
+          <t>ngu thế, t hỏi gói [vip 2](post_package)</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
@@ -31439,7 +31616,7 @@
       <c r="B461" t="inlineStr"/>
       <c r="C461" t="inlineStr">
         <is>
-          <t>mình dùng được [30 ngày](duration) rồi</t>
+          <t>gói [vip2](post_package) nhé</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
@@ -31452,7 +31629,7 @@
       <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr">
         <is>
-          <t>mình dùng được [1 tuần](duration) rồi</t>
+          <t>[vip 2](post_package) ấy</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
@@ -31465,7 +31642,7 @@
       <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr">
         <is>
-          <t>mình dùng được [54 ngày](duration) rồi</t>
+          <t>mình dùng được [30 ngày](duration) rồi</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
@@ -31478,7 +31655,7 @@
       <c r="B464" t="inlineStr"/>
       <c r="C464" t="inlineStr">
         <is>
-          <t>mình dùng [34 ngày](duration)</t>
+          <t>mình dùng được [1 tuần](duration) rồi</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
@@ -31491,7 +31668,7 @@
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr">
         <is>
-          <t>[31 ngày](duration)</t>
+          <t>mình dùng được [54 ngày](duration) rồi</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
@@ -31504,7 +31681,7 @@
       <c r="B466" t="inlineStr"/>
       <c r="C466" t="inlineStr">
         <is>
-          <t>[1 tháng](duration) rồi</t>
+          <t>mình dùng [34 ngày](duration)</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
@@ -31517,7 +31694,7 @@
       <c r="B467" t="inlineStr"/>
       <c r="C467" t="inlineStr">
         <is>
-          <t>chắc [22 ngày](duration)</t>
+          <t>[31 ngày](duration)</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -31530,7 +31707,7 @@
       <c r="B468" t="inlineStr"/>
       <c r="C468" t="inlineStr">
         <is>
-          <t>tầm [66 ngày](duration) ạ</t>
+          <t>[1 tháng](duration) rồi</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
@@ -31543,7 +31720,7 @@
       <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr">
         <is>
-          <t xml:space="preserve">chắc khoảng [27 ngày](duration) </t>
+          <t>chắc [22 ngày](duration)</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
@@ -31556,7 +31733,7 @@
       <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr">
         <is>
-          <t>khoảng [2 tuần](duration) rồi ấy</t>
+          <t>tầm [66 ngày](duration) ạ</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
@@ -31569,7 +31746,7 @@
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr">
         <is>
-          <t>cũng được [26 ngày](duration) rồi</t>
+          <t xml:space="preserve">chắc khoảng [27 ngày](duration) </t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
@@ -31582,7 +31759,7 @@
       <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr">
         <is>
-          <t>mình dùng [vip 2](post_package)</t>
+          <t>khoảng [2 tuần](duration) rồi ấy</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
@@ -31595,7 +31772,7 @@
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr">
         <is>
-          <t>mình dùng gói [vip 3](post_package)</t>
+          <t>cũng được [26 ngày](duration) rồi</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
@@ -31608,7 +31785,7 @@
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr">
         <is>
-          <t>mình đang dùng gói [vip 1](post_package)</t>
+          <t>mình dùng [vip 2](post_package)</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
@@ -31621,7 +31798,7 @@
       <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr">
         <is>
-          <t>t dùng gói [vip2](post_package) nhé</t>
+          <t>mình dùng gói [vip 3](post_package)</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
@@ -31634,7 +31811,7 @@
       <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr">
         <is>
-          <t>tớ đăng được [40 ngày](duration) rồi ý</t>
+          <t>mình đang dùng gói [vip 1](post_package)</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
@@ -31647,7 +31824,7 @@
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr">
         <is>
-          <t>mình đăng tin được [31 ngày](duration) rồi</t>
+          <t>t dùng gói [vip2](post_package) nhé</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
@@ -31660,7 +31837,7 @@
       <c r="B478" t="inlineStr"/>
       <c r="C478" t="inlineStr">
         <is>
-          <t>tin của mình đăng được [24 ngày](duration) rồi</t>
+          <t>tớ đăng được [40 ngày](duration) rồi ý</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
@@ -31673,7 +31850,7 @@
       <c r="B479" t="inlineStr"/>
       <c r="C479" t="inlineStr">
         <is>
-          <t>mình đăng bài được [19 ngày](duration) rồi</t>
+          <t>à nhầm [30 ngày](post_package) thì phải</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
@@ -31686,7 +31863,7 @@
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr">
         <is>
-          <t>mình mới sử dụng được [3 ngày](duration) thôi</t>
+          <t>mình đăng tin được [31 ngày](duration) rồi</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
@@ -31699,7 +31876,7 @@
       <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr">
         <is>
-          <t>mới dùng có [4 ngày](duration) thôi</t>
+          <t>tin của mình đăng được [24 ngày](duration) rồi</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
@@ -31712,7 +31889,7 @@
       <c r="B482" t="inlineStr"/>
       <c r="C482" t="inlineStr">
         <is>
-          <t>mới đăng có [6 ngày](duration) thôi</t>
+          <t>mình đăng bài được [19 ngày](duration) rồi</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
@@ -31725,7 +31902,7 @@
       <c r="B483" t="inlineStr"/>
       <c r="C483" t="inlineStr">
         <is>
-          <t>bài mới đăng được [1 tuần](duration) thôi</t>
+          <t>mình mới sử dụng được [3 ngày](duration) thôi</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
@@ -31738,7 +31915,7 @@
       <c r="B484" t="inlineStr"/>
       <c r="C484" t="inlineStr">
         <is>
-          <t>chắc khoảng [20 ngày](duration) ấy</t>
+          <t>mới dùng có [4 ngày](duration) thôi</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
@@ -31751,7 +31928,7 @@
       <c r="B485" t="inlineStr"/>
       <c r="C485" t="inlineStr">
         <is>
-          <t>tầm [13 ngày](duration)</t>
+          <t>mới đăng có [6 ngày](duration) thôi</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
@@ -31764,7 +31941,7 @@
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr">
         <is>
-          <t>[2 tuần](duration)</t>
+          <t>bài mới đăng được [1 tuần](duration) thôi</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
@@ -31777,7 +31954,7 @@
       <c r="B487" t="inlineStr"/>
       <c r="C487" t="inlineStr">
         <is>
-          <t>[15 ngày](duration)</t>
+          <t>chắc khoảng [20 ngày](duration) ấy</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -31786,31 +31963,15 @@
       <c r="G487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>Than giá đắt</t>
-        </is>
-      </c>
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr"/>
       <c r="C488" t="inlineStr">
         <is>
-          <t>đắt thế</t>
-        </is>
-      </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>user_feel_expensive</t>
-        </is>
-      </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>Mình nghĩ so với lợi ích nó mang lại thì giá này hoàn toàn phù hợp ạ</t>
-        </is>
-      </c>
+          <t>tầm [13 ngày](duration)</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
     </row>
@@ -31819,15 +31980,11 @@
       <c r="B489" t="inlineStr"/>
       <c r="C489" t="inlineStr">
         <is>
-          <t>đắt nhỉ</t>
+          <t>[2 tuần](duration)</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>So với lợi ích mang lại thì mình thấy giá này hoàn toàn phù hợp đó ạ</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
     </row>
@@ -31836,7 +31993,7 @@
       <c r="B490" t="inlineStr"/>
       <c r="C490" t="inlineStr">
         <is>
-          <t>không hề rẻ</t>
+          <t>[15 ngày](duration)</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -31849,7 +32006,7 @@
       <c r="B491" t="inlineStr"/>
       <c r="C491" t="inlineStr">
         <is>
-          <t>sao đắt thế</t>
+          <t>[0396475817](phone_number)</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -31862,7 +32019,7 @@
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="inlineStr">
         <is>
-          <t>ù ui đắt nhể</t>
+          <t>sđt mình [0368546197](phone_number)</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
@@ -31875,7 +32032,7 @@
       <c r="B493" t="inlineStr"/>
       <c r="C493" t="inlineStr">
         <is>
-          <t>sao mà đắt quá</t>
+          <t>số mình là [08192859279](phone_number)</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
@@ -31888,7 +32045,7 @@
       <c r="B494" t="inlineStr"/>
       <c r="C494" t="inlineStr">
         <is>
-          <t>ui giá cao thế</t>
+          <t>điện thoại mình là [0986764738](phone_number)</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
@@ -31901,7 +32058,7 @@
       <c r="B495" t="inlineStr"/>
       <c r="C495" t="inlineStr">
         <is>
-          <t>giá cao thế</t>
+          <t>số mình là [0338728179](phone_number)</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
@@ -31914,7 +32071,7 @@
       <c r="B496" t="inlineStr"/>
       <c r="C496" t="inlineStr">
         <is>
-          <t>giá cao thế</t>
+          <t>số mình: [0987656678](phone_number)</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
@@ -31927,7 +32084,7 @@
       <c r="B497" t="inlineStr"/>
       <c r="C497" t="inlineStr">
         <is>
-          <t>giá không hề thấp</t>
+          <t>sdt mình [0162846287](phone_number)</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
@@ -31940,7 +32097,7 @@
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="inlineStr">
         <is>
-          <t>sao mà giá nó cao vậy</t>
+          <t>mail mình là [[manhdh@gmail.com](email)</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
@@ -31949,26 +32106,14 @@
       <c r="G498" t="inlineStr"/>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>Hỏi giá gì đó</t>
-        </is>
-      </c>
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" t="inlineStr"/>
       <c r="C499" t="inlineStr">
         <is>
-          <t>giá như nào vậy</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>user_ask_price</t>
-        </is>
-      </c>
+          <t>mail là [huongmh@gmail.com](email)</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
@@ -31978,7 +32123,7 @@
       <c r="B500" t="inlineStr"/>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Giá có đắt không</t>
+          <t>[01685461787](phone_number)</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
@@ -31991,7 +32136,7 @@
       <c r="B501" t="inlineStr"/>
       <c r="C501" t="inlineStr">
         <is>
-          <t>có đắt ko</t>
+          <t>email mình là [mylinh@yahoo.com.vn](email)</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
@@ -32004,7 +32149,7 @@
       <c r="B502" t="inlineStr"/>
       <c r="C502" t="inlineStr">
         <is>
-          <t>có rẻ không</t>
+          <t>[dungct@meeyland.com](email) nhé</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
@@ -32017,7 +32162,7 @@
       <c r="B503" t="inlineStr"/>
       <c r="C503" t="inlineStr">
         <is>
-          <t>giá có rẻ không</t>
+          <t>[satthubongdem@meeygroup.com](email)</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
@@ -32030,7 +32175,7 @@
       <c r="B504" t="inlineStr"/>
       <c r="C504" t="inlineStr">
         <is>
-          <t>giá cả như thế nào</t>
+          <t>mai mình [hoangtudangyeu@yahoo.com]</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
@@ -32043,7 +32188,7 @@
       <c r="B505" t="inlineStr"/>
       <c r="C505" t="inlineStr">
         <is>
-          <t>giá cả có đắt đỏ ko</t>
+          <t>[huhahuho@gmail.com](email) nhé</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
@@ -32054,11 +32199,7 @@
     <row r="506">
       <c r="A506" t="inlineStr"/>
       <c r="B506" t="inlineStr"/>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>có đắt không vậy</t>
-        </is>
-      </c>
+      <c r="C506" t="inlineStr"/>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
@@ -32067,27 +32208,27 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>đồng tình</t>
+          <t>Than giá đắt</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Thế à</t>
+          <t>đắt thế</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>user_show_agreement</t>
+          <t>user_feel_expensive</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>Vâng ạ</t>
+          <t>Mình nghĩ so với lợi ích nó mang lại thì giá này hoàn toàn phù hợp ạ</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
@@ -32098,11 +32239,15 @@
       <c r="B508" t="inlineStr"/>
       <c r="C508" t="inlineStr">
         <is>
-          <t>vậy à</t>
+          <t>đắt nhỉ</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>So với lợi ích mang lại thì mình thấy giá này hoàn toàn phù hợp đó ạ</t>
+        </is>
+      </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
     </row>
@@ -32111,7 +32256,7 @@
       <c r="B509" t="inlineStr"/>
       <c r="C509" t="inlineStr">
         <is>
-          <t>ô vậy à</t>
+          <t>không hề rẻ</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
@@ -32124,7 +32269,7 @@
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr">
         <is>
-          <t>ra thế</t>
+          <t>sao đắt thế</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
@@ -32137,7 +32282,7 @@
       <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr">
         <is>
-          <t>ô thì ra là vậy</t>
+          <t>ù ui đắt nhể</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
@@ -32150,7 +32295,7 @@
       <c r="B512" t="inlineStr"/>
       <c r="C512" t="inlineStr">
         <is>
-          <t>thì ra là vậy</t>
+          <t>sao mà đắt quá</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
@@ -32163,7 +32308,7 @@
       <c r="B513" t="inlineStr"/>
       <c r="C513" t="inlineStr">
         <is>
-          <t>ô thế à</t>
+          <t>ui giá cao thế</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
@@ -32176,7 +32321,7 @@
       <c r="B514" t="inlineStr"/>
       <c r="C514" t="inlineStr">
         <is>
-          <t>giờ mới bíết đấy</t>
+          <t>giá cao thế</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
@@ -32185,26 +32330,14 @@
       <c r="G514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>vào đâu để tải hoặc xem gì đó</t>
-        </is>
-      </c>
+      <c r="A515" t="inlineStr"/>
+      <c r="B515" t="inlineStr"/>
       <c r="C515" t="inlineStr">
         <is>
-          <t>tải ở đâu</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>how_download_or_view_st</t>
-        </is>
-      </c>
+          <t>giá cao thế</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
@@ -32214,7 +32347,7 @@
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="inlineStr">
         <is>
-          <t>tải như thế nào</t>
+          <t>giá không hề thấp</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
@@ -32227,7 +32360,7 @@
       <c r="B517" t="inlineStr"/>
       <c r="C517" t="inlineStr">
         <is>
-          <t>tải ở đâu thế</t>
+          <t>sao mà giá nó cao vậy</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
@@ -32236,14 +32369,26 @@
       <c r="G517" t="inlineStr"/>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr"/>
-      <c r="B518" t="inlineStr"/>
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Hỏi giá gì đó</t>
+        </is>
+      </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>download ở đâu thế</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
+          <t>giá như nào vậy</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>user_ask_price</t>
+        </is>
+      </c>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
@@ -32253,7 +32398,7 @@
       <c r="B519" t="inlineStr"/>
       <c r="C519" t="inlineStr">
         <is>
-          <t>down ở đâu thế</t>
+          <t>Giá có đắt không</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -32266,7 +32411,7 @@
       <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr">
         <is>
-          <t>đao ở đâu nhỉ</t>
+          <t>có đắt ko</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
@@ -32279,7 +32424,7 @@
       <c r="B521" t="inlineStr"/>
       <c r="C521" t="inlineStr">
         <is>
-          <t>down load ở đâu</t>
+          <t>có rẻ không</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
@@ -32292,7 +32437,7 @@
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr">
         <is>
-          <t>tải như nào</t>
+          <t>giá có rẻ không</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
@@ -32305,7 +32450,7 @@
       <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr">
         <is>
-          <t>tải thế nào</t>
+          <t>giá cả như thế nào</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
@@ -32318,7 +32463,7 @@
       <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr">
         <is>
-          <t>sao để tải</t>
+          <t>giá cả có đắt đỏ ko</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
@@ -32331,7 +32476,7 @@
       <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr">
         <is>
-          <t>làm sao để down</t>
+          <t>có đắt không vậy</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
@@ -32340,15 +32485,31 @@
       <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr"/>
-      <c r="B526" t="inlineStr"/>
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>đồng tình</t>
+        </is>
+      </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>vào đâu vậy</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr"/>
+          <t>Thế à</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>user_show_agreement</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Vâng ạ</t>
+        </is>
+      </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr"/>
     </row>
@@ -32357,7 +32518,7 @@
       <c r="B527" t="inlineStr"/>
       <c r="C527" t="inlineStr">
         <is>
-          <t>đâu nhỉ</t>
+          <t>vậy à</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
@@ -32370,7 +32531,7 @@
       <c r="B528" t="inlineStr"/>
       <c r="C528" t="inlineStr">
         <is>
-          <t>ở đâu ta</t>
+          <t>ô vậy à</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
@@ -32383,7 +32544,7 @@
       <c r="B529" t="inlineStr"/>
       <c r="C529" t="inlineStr">
         <is>
-          <t>xem ở đâu</t>
+          <t>ra thế</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
@@ -32396,7 +32557,7 @@
       <c r="B530" t="inlineStr"/>
       <c r="C530" t="inlineStr">
         <is>
-          <t>có ở đâu</t>
+          <t>ô thì ra là vậy</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
@@ -32409,7 +32570,7 @@
       <c r="B531" t="inlineStr"/>
       <c r="C531" t="inlineStr">
         <is>
-          <t>sao để xem</t>
+          <t>thì ra là vậy</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
@@ -32422,7 +32583,7 @@
       <c r="B532" t="inlineStr"/>
       <c r="C532" t="inlineStr">
         <is>
-          <t>sao để load</t>
+          <t>ô thế à</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
@@ -32431,27 +32592,286 @@
       <c r="G532" t="inlineStr"/>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
+      <c r="A533" t="inlineStr"/>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>giờ mới bíết đấy</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>vào đâu để tải hoặc xem gì đó</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>tải ở đâu</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>how_download_or_view_st</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr"/>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>tải như thế nào</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" t="inlineStr"/>
+      <c r="G535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr"/>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>tải ở đâu thế</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr"/>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>download ở đâu thế</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
+      <c r="G537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr"/>
+      <c r="B538" t="inlineStr"/>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>down ở đâu thế</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr"/>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr"/>
+      <c r="G538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr"/>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>đao ở đâu nhỉ</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>down load ở đâu</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr"/>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>tải như nào</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr"/>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>tải thế nào</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr"/>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>sao để tải</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
+      <c r="E543" t="inlineStr"/>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr"/>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>làm sao để down</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>vào đâu vậy</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>đâu nhỉ</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>ở đâu ta</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr"/>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>xem ở đâu</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr"/>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>có ở đâu</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>sao để xem</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr"/>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>sao để load</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B533" t="inlineStr">
+      <c r="B552" t="inlineStr">
         <is>
           <t>Hỏi bot có thể làm gì</t>
         </is>
       </c>
-      <c r="C533" t="inlineStr">
+      <c r="C552" t="inlineStr">
         <is>
           <t>m có thể làm gì</t>
         </is>
       </c>
-      <c r="D533" t="inlineStr">
+      <c r="D552" t="inlineStr">
         <is>
           <t>ask_whatspossible</t>
         </is>
       </c>
-      <c r="E533" t="inlineStr">
+      <c r="E552" t="inlineStr">
         <is>
           <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
 • Thông tin chung về MeeyLand
@@ -32463,253 +32883,6 @@
 Rất vui có thể giải đáp cho bạn các câu hỏi về các vấn đề trên.</t>
         </is>
       </c>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr"/>
-      <c r="B534" t="inlineStr"/>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>m giúp ích gì</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr"/>
-      <c r="B535" t="inlineStr"/>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>m có thể giúp gì được cho t</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr"/>
-      <c r="B536" t="inlineStr"/>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>m giúp gì được cho t</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr"/>
-      <c r="B537" t="inlineStr"/>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>vậy bạn giúp tôi được những việc gì</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr"/>
-      <c r="B538" t="inlineStr"/>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>thế bạn giúp được việc gì</t>
-        </is>
-      </c>
-      <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr"/>
-      <c r="B539" t="inlineStr"/>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>bạn có thể giúp gì được cho t</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr"/>
-      <c r="B540" t="inlineStr"/>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>Mình hỏi bạn nhé, bạn có trả lời được mọi câu hỏi không?</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr"/>
-      <c r="B541" t="inlineStr"/>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>Bạn hỗ trợ vấn đề gì nhỉ</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr"/>
-      <c r="B542" t="inlineStr"/>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>thế phạm vi của bot là gì</t>
-        </is>
-      </c>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr"/>
-      <c r="B543" t="inlineStr"/>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>bot có gì nổi bật</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr"/>
-      <c r="B544" t="inlineStr"/>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>bot có gì</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr"/>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>bot có những gì</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr"/>
-      <c r="B546" t="inlineStr"/>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>phạm vi của bot là gì</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr"/>
-      <c r="B547" t="inlineStr"/>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>thế phạm vi của bạn là gì</t>
-        </is>
-      </c>
-      <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr"/>
-      <c r="B548" t="inlineStr"/>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>phạm vi của bạn là gì nào</t>
-        </is>
-      </c>
-      <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr"/>
-      <c r="B549" t="inlineStr"/>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>bạn có thể trả lời những gì</t>
-        </is>
-      </c>
-      <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr"/>
-      <c r="B550" t="inlineStr"/>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>bot có thể trả lời những việc gì</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr"/>
-      <c r="B551" t="inlineStr"/>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>tôi có thể hỏi bot những gì</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr"/>
-      <c r="B552" t="inlineStr"/>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>giới thiệu về bạn đi</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr"/>
-      <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr"/>
     </row>
@@ -32718,7 +32891,7 @@
       <c r="B553" t="inlineStr"/>
       <c r="C553" t="inlineStr">
         <is>
-          <t>giới thiệu về bot</t>
+          <t>m giúp ích gì</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
@@ -32731,7 +32904,7 @@
       <c r="B554" t="inlineStr"/>
       <c r="C554" t="inlineStr">
         <is>
-          <t>cho tôi biết về bạn đi</t>
+          <t>m có thể giúp gì được cho t</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
@@ -32744,7 +32917,7 @@
       <c r="B555" t="inlineStr"/>
       <c r="C555" t="inlineStr">
         <is>
-          <t>bạn giúp được gì cho MeeyLand</t>
+          <t>m giúp gì được cho t</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
@@ -32757,7 +32930,7 @@
       <c r="B556" t="inlineStr"/>
       <c r="C556" t="inlineStr">
         <is>
-          <t>có thể hỏi bot những gì đây</t>
+          <t>vậy bạn giúp tôi được những việc gì</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
@@ -32770,7 +32943,7 @@
       <c r="B557" t="inlineStr"/>
       <c r="C557" t="inlineStr">
         <is>
-          <t>bạn được sinh ra để làm gì</t>
+          <t>thế bạn giúp được việc gì</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
@@ -32783,7 +32956,7 @@
       <c r="B558" t="inlineStr"/>
       <c r="C558" t="inlineStr">
         <is>
-          <t>bot được tạo ra để làm gì</t>
+          <t>bạn có thể giúp gì được cho t</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
@@ -32796,7 +32969,7 @@
       <c r="B559" t="inlineStr"/>
       <c r="C559" t="inlineStr">
         <is>
-          <t>bot được tạo ra có chức năng gì</t>
+          <t>Mình hỏi bạn nhé, bạn có trả lời được mọi câu hỏi không?</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
@@ -32809,7 +32982,7 @@
       <c r="B560" t="inlineStr"/>
       <c r="C560" t="inlineStr">
         <is>
-          <t>nhiệm vụ của mày là gì</t>
+          <t>Bạn hỗ trợ vấn đề gì nhỉ</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
@@ -32822,7 +32995,7 @@
       <c r="B561" t="inlineStr"/>
       <c r="C561" t="inlineStr">
         <is>
-          <t>nhiệm vụ của bot là gì</t>
+          <t>thế phạm vi của bot là gì</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
@@ -32835,7 +33008,7 @@
       <c r="B562" t="inlineStr"/>
       <c r="C562" t="inlineStr">
         <is>
-          <t>bot có nhiệm vụ gì</t>
+          <t>bot có gì nổi bật</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
@@ -32848,7 +33021,7 @@
       <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr">
         <is>
-          <t>bot có thể giúp tôi những gì</t>
+          <t>bot có gì</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
@@ -32861,7 +33034,7 @@
       <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr">
         <is>
-          <t>giúp được việc gì</t>
+          <t>bot có những gì</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
@@ -32874,7 +33047,7 @@
       <c r="B565" t="inlineStr"/>
       <c r="C565" t="inlineStr">
         <is>
-          <t>bạn trả lời được gì</t>
+          <t>phạm vi của bot là gì</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
@@ -32887,7 +33060,7 @@
       <c r="B566" t="inlineStr"/>
       <c r="C566" t="inlineStr">
         <is>
-          <t>vậy bot giúp đc gì</t>
+          <t>thế phạm vi của bạn là gì</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
@@ -32900,7 +33073,7 @@
       <c r="B567" t="inlineStr"/>
       <c r="C567" t="inlineStr">
         <is>
-          <t>có trả lời được nhiều không</t>
+          <t>phạm vi của bạn là gì nào</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
@@ -32913,7 +33086,7 @@
       <c r="B568" t="inlineStr"/>
       <c r="C568" t="inlineStr">
         <is>
-          <t>có thể trả lời mọi câu hỏi không</t>
+          <t>bạn có thể trả lời những gì</t>
         </is>
       </c>
       <c r="D568" t="inlineStr"/>
@@ -32926,7 +33099,7 @@
       <c r="B569" t="inlineStr"/>
       <c r="C569" t="inlineStr">
         <is>
-          <t>câu hỏi nào bạn trả lời được</t>
+          <t>bot có thể trả lời những việc gì</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
@@ -32939,7 +33112,7 @@
       <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
-          <t>trả lời được câu hỏi gì</t>
+          <t>tôi có thể hỏi bot những gì</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
@@ -32952,7 +33125,7 @@
       <c r="B571" t="inlineStr"/>
       <c r="C571" t="inlineStr">
         <is>
-          <t>bạn có thể giúp gì</t>
+          <t>giới thiệu về bạn đi</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
@@ -32965,7 +33138,7 @@
       <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr">
         <is>
-          <t>bạn làm được những gì</t>
+          <t>giới thiệu về bot</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
@@ -32978,7 +33151,7 @@
       <c r="B573" t="inlineStr"/>
       <c r="C573" t="inlineStr">
         <is>
-          <t>m có thể làm những gì vậy</t>
+          <t>cho tôi biết về bạn đi</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
@@ -32991,7 +33164,7 @@
       <c r="B574" t="inlineStr"/>
       <c r="C574" t="inlineStr">
         <is>
-          <t>cho hỏi m biết những gì vậy</t>
+          <t>bạn giúp được gì cho MeeyLand</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
@@ -33004,7 +33177,7 @@
       <c r="B575" t="inlineStr"/>
       <c r="C575" t="inlineStr">
         <is>
-          <t>khả năng của m là gì</t>
+          <t>có thể hỏi bot những gì đây</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
@@ -33017,7 +33190,7 @@
       <c r="B576" t="inlineStr"/>
       <c r="C576" t="inlineStr">
         <is>
-          <t>m có những khả năng gì</t>
+          <t>bạn được sinh ra để làm gì</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
@@ -33030,7 +33203,7 @@
       <c r="B577" t="inlineStr"/>
       <c r="C577" t="inlineStr">
         <is>
-          <t>vậy Bot giúp đc việc gì</t>
+          <t>bot được tạo ra để làm gì</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
@@ -33043,7 +33216,7 @@
       <c r="B578" t="inlineStr"/>
       <c r="C578" t="inlineStr">
         <is>
-          <t>bot có ích gì</t>
+          <t>bot được tạo ra có chức năng gì</t>
         </is>
       </c>
       <c r="D578" t="inlineStr"/>
@@ -33056,7 +33229,7 @@
       <c r="B579" t="inlineStr"/>
       <c r="C579" t="inlineStr">
         <is>
-          <t>sao t lại cần m</t>
+          <t>nhiệm vụ của mày là gì</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
@@ -33069,7 +33242,7 @@
       <c r="B580" t="inlineStr"/>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Việc gì trong phạm vi đây</t>
+          <t>nhiệm vụ của bot là gì</t>
         </is>
       </c>
       <c r="D580" t="inlineStr"/>
@@ -33082,7 +33255,7 @@
       <c r="B581" t="inlineStr"/>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Thế giờ thì hỏi gì đây</t>
+          <t>bot có nhiệm vụ gì</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
@@ -33095,7 +33268,7 @@
       <c r="B582" t="inlineStr"/>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Nhiệm vụ của bạn là gì</t>
+          <t>bot có thể giúp tôi những gì</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
@@ -33108,7 +33281,7 @@
       <c r="B583" t="inlineStr"/>
       <c r="C583" t="inlineStr">
         <is>
-          <t>bot có gì nổi bật</t>
+          <t>giúp được việc gì</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
@@ -33119,7 +33292,11 @@
     <row r="584">
       <c r="A584" t="inlineStr"/>
       <c r="B584" t="inlineStr"/>
-      <c r="C584" t="inlineStr"/>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>bạn trả lời được gì</t>
+        </is>
+      </c>
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr"/>
       <c r="F584" t="inlineStr"/>
@@ -33128,7 +33305,11 @@
     <row r="585">
       <c r="A585" t="inlineStr"/>
       <c r="B585" t="inlineStr"/>
-      <c r="C585" t="inlineStr"/>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>vậy bot giúp đc gì</t>
+        </is>
+      </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr"/>
       <c r="F585" t="inlineStr"/>
@@ -33137,7 +33318,11 @@
     <row r="586">
       <c r="A586" t="inlineStr"/>
       <c r="B586" t="inlineStr"/>
-      <c r="C586" t="inlineStr"/>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>có trả lời được nhiều không</t>
+        </is>
+      </c>
       <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr"/>
       <c r="F586" t="inlineStr"/>
@@ -33146,7 +33331,11 @@
     <row r="587">
       <c r="A587" t="inlineStr"/>
       <c r="B587" t="inlineStr"/>
-      <c r="C587" t="inlineStr"/>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>có thể trả lời mọi câu hỏi không</t>
+        </is>
+      </c>
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr"/>
       <c r="F587" t="inlineStr"/>
@@ -33155,38 +33344,26 @@
     <row r="588">
       <c r="A588" t="inlineStr"/>
       <c r="B588" t="inlineStr"/>
-      <c r="C588" t="inlineStr"/>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>câu hỏi nào bạn trả lời được</t>
+        </is>
+      </c>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr"/>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>Bot đang làm gì đấy</t>
-        </is>
-      </c>
+      <c r="A589" t="inlineStr"/>
+      <c r="B589" t="inlineStr"/>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Bot đang làm gì đấy</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>what_bot_doing</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr">
-        <is>
-          <t>Dạ mình đang nói chuyện với một bạn dễ thương lắm ạ</t>
-        </is>
-      </c>
+          <t>trả lời được câu hỏi gì</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr"/>
+      <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
     </row>
@@ -33195,7 +33372,7 @@
       <c r="B590" t="inlineStr"/>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Bot đang làm gì</t>
+          <t>bạn có thể giúp gì</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
@@ -33208,7 +33385,7 @@
       <c r="B591" t="inlineStr"/>
       <c r="C591" t="inlineStr">
         <is>
-          <t>bot đang làm gì thế</t>
+          <t>bạn làm được những gì</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
@@ -33221,7 +33398,7 @@
       <c r="B592" t="inlineStr"/>
       <c r="C592" t="inlineStr">
         <is>
-          <t>bạn đang làm gì thế</t>
+          <t>m có thể làm những gì vậy</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
@@ -33234,7 +33411,7 @@
       <c r="B593" t="inlineStr"/>
       <c r="C593" t="inlineStr">
         <is>
-          <t>bot đang làm gì nhỉ</t>
+          <t>cho hỏi m biết những gì vậy</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
@@ -33247,7 +33424,7 @@
       <c r="B594" t="inlineStr"/>
       <c r="C594" t="inlineStr">
         <is>
-          <t>bot đang làm gì thế nhỉ</t>
+          <t>khả năng của m là gì</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
@@ -33260,7 +33437,7 @@
       <c r="B595" t="inlineStr"/>
       <c r="C595" t="inlineStr">
         <is>
-          <t>bot làm gì thế</t>
+          <t>m có những khả năng gì</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
@@ -33273,7 +33450,7 @@
       <c r="B596" t="inlineStr"/>
       <c r="C596" t="inlineStr">
         <is>
-          <t>bot đang làm việc gì thế</t>
+          <t>vậy Bot giúp đc việc gì</t>
         </is>
       </c>
       <c r="D596" t="inlineStr"/>
@@ -33286,7 +33463,7 @@
       <c r="B597" t="inlineStr"/>
       <c r="C597" t="inlineStr">
         <is>
-          <t>mày đang làm việc gì vậy</t>
+          <t>bot có ích gì</t>
         </is>
       </c>
       <c r="D597" t="inlineStr"/>
@@ -33299,7 +33476,7 @@
       <c r="B598" t="inlineStr"/>
       <c r="C598" t="inlineStr">
         <is>
-          <t>mày đang làm gì</t>
+          <t>sao t lại cần m</t>
         </is>
       </c>
       <c r="D598" t="inlineStr"/>
@@ -33312,7 +33489,7 @@
       <c r="B599" t="inlineStr"/>
       <c r="C599" t="inlineStr">
         <is>
-          <t>bạn đang làm gì</t>
+          <t>Việc gì trong phạm vi đây</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
@@ -33323,33 +33500,25 @@
     <row r="600">
       <c r="A600" t="inlineStr"/>
       <c r="B600" t="inlineStr"/>
-      <c r="C600" t="inlineStr"/>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Thế giờ thì hỏi gì đây</t>
+        </is>
+      </c>
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
     </row>
     <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>Cần học thêm</t>
-        </is>
-      </c>
+      <c r="A601" t="inlineStr"/>
+      <c r="B601" t="inlineStr"/>
       <c r="C601" t="inlineStr">
         <is>
-          <t>bạn học thêm di</t>
-        </is>
-      </c>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>bot_need_learning</t>
-        </is>
-      </c>
+          <t>Nhiệm vụ của bạn là gì</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
@@ -33359,7 +33528,7 @@
       <c r="B602" t="inlineStr"/>
       <c r="C602" t="inlineStr">
         <is>
-          <t>bạn cần học thêm</t>
+          <t>bot có gì nổi bật</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
@@ -33370,11 +33539,7 @@
     <row r="603">
       <c r="A603" t="inlineStr"/>
       <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>học thêm đi mày</t>
-        </is>
-      </c>
+      <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="inlineStr"/>
@@ -33383,11 +33548,7 @@
     <row r="604">
       <c r="A604" t="inlineStr"/>
       <c r="B604" t="inlineStr"/>
-      <c r="C604" t="inlineStr">
-        <is>
-          <t>học thêm đi</t>
-        </is>
-      </c>
+      <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
@@ -33396,11 +33557,7 @@
     <row r="605">
       <c r="A605" t="inlineStr"/>
       <c r="B605" t="inlineStr"/>
-      <c r="C605" t="inlineStr">
-        <is>
-          <t>học đi</t>
-        </is>
-      </c>
+      <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr"/>
@@ -33409,11 +33566,7 @@
     <row r="606">
       <c r="A606" t="inlineStr"/>
       <c r="B606" t="inlineStr"/>
-      <c r="C606" t="inlineStr">
-        <is>
-          <t>cần học hỏi nhiều</t>
-        </is>
-      </c>
+      <c r="C606" t="inlineStr"/>
       <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr"/>
@@ -33422,26 +33575,38 @@
     <row r="607">
       <c r="A607" t="inlineStr"/>
       <c r="B607" t="inlineStr"/>
-      <c r="C607" t="inlineStr">
-        <is>
-          <t>cần học hỏi thêm</t>
-        </is>
-      </c>
+      <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
     </row>
     <row r="608">
-      <c r="A608" t="inlineStr"/>
-      <c r="B608" t="inlineStr"/>
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Bot đang làm gì đấy</t>
+        </is>
+      </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>vẫn còn dốt lắm</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr"/>
-      <c r="E608" t="inlineStr"/>
+          <t>Bot đang làm gì đấy</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>what_bot_doing</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>Dạ mình đang nói chuyện với một bạn dễ thương lắm ạ</t>
+        </is>
+      </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
     </row>
@@ -33450,7 +33615,7 @@
       <c r="B609" t="inlineStr"/>
       <c r="C609" t="inlineStr">
         <is>
-          <t>vẫn còn kém lắm</t>
+          <t>Bot đang làm gì</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
@@ -33463,7 +33628,7 @@
       <c r="B610" t="inlineStr"/>
       <c r="C610" t="inlineStr">
         <is>
-          <t>vẫn chưa thông minh lắm</t>
+          <t>bot đang làm gì thế</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
@@ -33476,13 +33641,268 @@
       <c r="B611" t="inlineStr"/>
       <c r="C611" t="inlineStr">
         <is>
-          <t>cần học thêm đấy</t>
+          <t>bạn đang làm gì thế</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr"/>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>bot đang làm gì nhỉ</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr"/>
+      <c r="B613" t="inlineStr"/>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>bot đang làm gì thế nhỉ</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr"/>
+      <c r="E613" t="inlineStr"/>
+      <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr"/>
+      <c r="B614" t="inlineStr"/>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>bot làm gì thế</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr"/>
+      <c r="E614" t="inlineStr"/>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr"/>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>bot đang làm việc gì thế</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr"/>
+      <c r="E615" t="inlineStr"/>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr"/>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>mày đang làm việc gì vậy</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr"/>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr"/>
+      <c r="G616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr"/>
+      <c r="B617" t="inlineStr"/>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>mày đang làm gì</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr"/>
+      <c r="E617" t="inlineStr"/>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr"/>
+      <c r="B618" t="inlineStr"/>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>bạn đang làm gì</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr"/>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr"/>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Cần học thêm</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>bạn học thêm di</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>bot_need_learning</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr"/>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>bạn cần học thêm</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr"/>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr"/>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>học thêm đi mày</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr"/>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>học thêm đi</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr"/>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>học đi</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr"/>
+      <c r="B625" t="inlineStr"/>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>cần học hỏi nhiều</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr"/>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>cần học hỏi thêm</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr"/>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>vẫn còn dốt lắm</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr"/>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>vẫn còn kém lắm</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr"/>
+      <c r="B629" t="inlineStr"/>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>vẫn chưa thông minh lắm</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr"/>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>cần học thêm đấy</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
